--- a/results/full_results_observed_MI.xlsx
+++ b/results/full_results_observed_MI.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Outcome</t>
   </si>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">NULL MODEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_pc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wealth</t>
   </si>
   <si>
     <t xml:space="preserve">Index</t>
@@ -492,10 +483,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.565568829043539</v>
+        <v>0.567775963923312</v>
       </c>
       <c r="I2" t="n">
-        <v>0.183073627821341</v>
+        <v>0.181609676902859</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -513,7 +504,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.43448360579471</v>
+        <v>0.432276726602564</v>
       </c>
     </row>
     <row r="3">
@@ -533,10 +524,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.576082929786696</v>
+        <v>0.57857599518225</v>
       </c>
       <c r="G3" t="n">
-        <v>0.20767288479074</v>
+        <v>0.208331613614247</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -571,13 +562,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.637459983591233</v>
+        <v>0.637296984495934</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362632736734615</v>
+        <v>0.362795826096782</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00009272032585</v>
+        <v>1.00009281059272</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -592,444 +583,21 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.362599116413305</v>
+        <v>0.362762157879051</v>
       </c>
       <c r="K4" t="n">
-        <v>0.207653631096809</v>
+        <v>0.208312280042041</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0105131259297515</v>
+        <v>0.0107990288723315</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0718844893814057</v>
+        <v>0.069514568723513</v>
       </c>
       <c r="N4" t="n">
-        <v>0.21816675702656</v>
+        <v>0.219111308914373</v>
       </c>
       <c r="O4" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.84251869701071</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0914868314225034</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.157503681139845</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.862195627449025</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.087996581206632</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O6" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.896135114628066</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.10389144736112</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.00002656198919</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.103888687675754</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0879942437833783</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.01967640766686</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.0536149934640907</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.107670651450238</v>
-      </c>
-      <c r="O7" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.799172695112048</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0835302222712924</v>
-      </c>
-      <c r="J8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.200856268276488</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.840979394769542</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0855590676337368</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O9" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.858270872557266</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.141765370862808</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.00003624342007</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.141760232691861</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0855559665596258</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.0418051845954866</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0590960355846269</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.127361151155112</v>
-      </c>
-      <c r="O10" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.809164401322874</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.129039716140253</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.190870624019836</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.829055013630821</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.131088098753811</v>
-      </c>
-      <c r="H12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O12" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.830738697997129</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.169304590156203</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.00004328815333</v>
-      </c>
-      <c r="F13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.169297261370793</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.131082424194475</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.019889751252509</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.0215733626490426</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.150972175446984</v>
-      </c>
-      <c r="O13" t="e">
         <v>#NUM!</v>
       </c>
     </row>
@@ -1049,19 +617,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -1072,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362599116413305</v>
+        <v>0.362762157879051</v>
       </c>
       <c r="D2" t="n">
-        <v>0.331072849033448</v>
+        <v>0.336156040269184</v>
       </c>
       <c r="E2" t="n">
-        <v>0.394125383793161</v>
+        <v>0.389368275488918</v>
       </c>
     </row>
     <row r="3">
@@ -1089,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21816675702656</v>
+        <v>0.219111308914373</v>
       </c>
       <c r="D3" t="n">
-        <v>0.187999538694736</v>
+        <v>0.194753198937951</v>
       </c>
       <c r="E3" t="n">
-        <v>0.248333975358385</v>
+        <v>0.243469418890795</v>
       </c>
     </row>
     <row r="4">
@@ -1106,166 +674,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.43448360579471</v>
+        <v>0.432276726602564</v>
       </c>
       <c r="D4" t="n">
-        <v>0.40341054522551</v>
+        <v>0.405783742812785</v>
       </c>
       <c r="E4" t="n">
-        <v>0.46555666636391</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.141760232691861</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0961310032363987</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.187389462147323</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.127361151155112</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.083169785657276</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.171552516652949</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.200856268276488</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.15714815121002</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.244564385342956</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.169297261370793</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.09866600572775</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.239928517013837</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.150972175446984</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.083378345046371</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.218566005847597</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.190870624019836</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.123541155559593</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.258200092480078</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.103888687675754</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0717287833345642</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.136048592016944</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.107670651450238</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0753235679584684</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.140017734942008</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.157503681139845</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.123000473071311</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.192006889208379</v>
+        <v>0.458769710392343</v>
       </c>
     </row>
   </sheetData>
